--- a/biology/Histoire de la zoologie et de la botanique/James_Edwin_Duerden/James_Edwin_Duerden.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Edwin_Duerden/James_Edwin_Duerden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Edwin Duerden est un zoologiste britannique, né en 1869 à Burnley, Lancashire et mort le 4 septembre 1937 à Leeds.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au Royal College of Science de Londres de 1885 à 1889 où il devient associé. En 1893, il est démonstrateur en zoologie et en paléontologie au Royal College de Science d’Irlande. Duerden commence alors à travailler sur les bryozoaires et les hydrozoaires présents dans la région.
 En 1895, il part en Jamaïque pour y occuper le poste de conservation du muséum. Il s’intéresse alors à la faune des grottes et à la faune marine. Il poursuit ses études à l’université Johns-Hopkins où il obtient son Master of Sciences et son Ph. D. en 1900. Il part alors à l’université de Caroline du Nord où il est professeur de biologie en 1902 et où il continue ses recherches débutées en Jamaïque sur les coraux. À partir de 1903, il est professeur assistant en zoologie à l’université du Michigan à Ann Arbor. En 1905, il exerce la fonction de professeur en zoologie à l’université Rhodes à Grahamstown en Afrique du Sud. Duerden commence alors à étudier les autruches et leurs plumes en vue d’améliorer leur production. La Première Guerre mondiale mettant un terme à la commercialisation des plumes d’autruche, Duerden se tourne alors vers la production de laine, notamment afin d’améliorer la production de laine mérinos.
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Biographie de Patrick Wyse Jackson</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1896 : The hydroids of the Irish coast, Dublin.
 1898 : On the relations of certain Stichodactylin to the Madreporaria, London : Linnean Society.
